--- a/doc/backlog.xlsx
+++ b/doc/backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wiede\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qmulprod-my.sharepoint.com/personal/jp2020213350_qmul_ac_uk/Documents/Documentation/Projects/Learing-Journey-System/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1E1BCB-7B47-483F-B07C-E687C202FD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="4590" windowWidth="26280" windowHeight="13680" activeTab="1" xr2:uid="{3F49B288-6193-4DE7-9AC0-22A57B07F515}"/>
+    <workbookView xWindow="2220" yWindow="8250" windowWidth="23290" windowHeight="13180" activeTab="1" xr2:uid="{3F49B288-6193-4DE7-9AC0-22A57B07F515}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -3014,7 +3014,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:I13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3829,18 +3829,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3863,6 +3863,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21DEC320-5407-47DA-ABB0-7C9729B21469}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{505B186A-8BDD-411D-9989-B68DF90A4393}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -3877,12 +3885,4 @@
     <ds:schemaRef ds:uri="cf5851a7-4765-49f8-89fa-a7fe7983a9cb"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21DEC320-5407-47DA-ABB0-7C9729B21469}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>